--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Target Volume Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Target Volume Templates.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dkphysicspv1\e$\Gregs_Work\Eclipse\Template Management\External Beam Templates\Structure Templates\Template Spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1125" windowWidth="27030" windowHeight="9885"/>
+    <workbookView xWindow="885" yWindow="1125" windowWidth="27030" windowHeight="9885" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PTV" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -435,9 +440,6 @@
     <t>GTV 4D20</t>
   </si>
   <si>
-    <t>4D GTV Target Structures</t>
-  </si>
-  <si>
     <t>GTV 4D Phase 10</t>
   </si>
   <si>
@@ -502,6 +504,9 @@
   </si>
   <si>
     <t>TemplateFileName</t>
+  </si>
+  <si>
+    <t>4D GTV Target Structures Contains GTV 4D N, ITV, IGTV, TMV, MIP, AVE</t>
   </si>
 </sst>
 </file>
@@ -2083,6 +2088,7 @@
       <sheetName val="ICD-10 Codes"/>
       <sheetName val="Color Chart"/>
       <sheetName val="Original Structure colors"/>
+      <sheetName val="ColourTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2096,6 +2102,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2270,7 +2277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2305,7 +2312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2519,8 +2526,8 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,7 +2643,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>37</v>
@@ -2702,7 +2709,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>42</v>
@@ -2834,20 +2841,20 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="45">
         <v>3</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>144</v>
       </c>
       <c r="H6" s="21" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
@@ -3003,7 +3010,7 @@
       </c>
       <c r="N8" s="16" t="str">
         <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int a</v>
+        <v>z PTV int L</v>
       </c>
       <c r="O8" s="14" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -3028,10 +3035,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>26</v>
@@ -3068,7 +3075,7 @@
       </c>
       <c r="N9" s="16" t="str">
         <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int b</v>
+        <v>z PTV int R</v>
       </c>
       <c r="O9" s="14" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -3093,10 +3100,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>22</v>
@@ -3158,10 +3165,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>21</v>
@@ -3198,7 +3205,7 @@
       </c>
       <c r="N11" s="16" t="str">
         <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low</v>
+        <v>z PTV low L</v>
       </c>
       <c r="O11" s="14" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -3223,7 +3230,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>27</v>
@@ -3788,7 +3795,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>75</v>
@@ -3853,7 +3860,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>42</v>
@@ -3983,7 +3990,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="46">
         <v>3</v>
@@ -4176,10 +4183,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -4193,23 +4200,23 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>27</v>
@@ -4366,7 +4373,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>78</v>
@@ -4432,7 +4439,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>42</v>
@@ -4539,7 +4546,7 @@
       </c>
       <c r="N5" s="16" t="str">
         <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV low</v>
+        <v>z CTV int</v>
       </c>
       <c r="O5" s="14" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -4564,7 +4571,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="46">
         <v>3</v>
@@ -4758,10 +4765,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>80</v>
@@ -4823,10 +4830,10 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>78</v>
@@ -4888,15 +4895,15 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>27</v>
@@ -5053,7 +5060,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>95</v>
@@ -5119,7 +5126,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>42</v>
@@ -5251,7 +5258,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="46">
         <v>3</v>
@@ -5445,10 +5452,10 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>102</v>
@@ -5510,10 +5517,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>95</v>
@@ -5527,10 +5534,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>95</v>
@@ -5544,7 +5551,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>27</v>
@@ -5742,7 +5749,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>115</v>
@@ -5807,7 +5814,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>42</v>
@@ -5937,7 +5944,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="46">
         <v>3</v>
@@ -6130,31 +6137,31 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>27</v>
@@ -6193,8 +6200,8 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6223,7 +6230,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="36"/>
@@ -6311,20 +6318,20 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="38" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="21" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
@@ -6377,7 +6384,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>42</v>
@@ -6387,10 +6394,10 @@
         <v>118</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="21" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
@@ -6446,7 +6453,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="38" t="s">
@@ -6509,7 +6516,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="46">
         <v>3</v>
@@ -6703,10 +6710,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>118</v>
@@ -6768,10 +6775,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="44" t="s">
         <v>118</v>
@@ -6833,10 +6840,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>118</v>
@@ -6898,7 +6905,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>27</v>
